--- a/data-raw/abecip_cgi.xlsx
+++ b/data-raw/abecip_cgi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusoike/Documents/GitHub/realestatebr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DEE30A-5145-6748-B671-18812EB37B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838884F-CA9F-E541-9069-1AA2C561BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E617B1F6-EB34-2A4E-917E-41F92E27F3C5}"/>
+    <workbookView xWindow="1520" yWindow="1280" windowWidth="15920" windowHeight="14880" xr2:uid="{E617B1F6-EB34-2A4E-917E-41F92E27F3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="251">
   <si>
     <t xml:space="preserve">Més </t>
   </si>
@@ -735,6 +734,57 @@
   </si>
   <si>
     <t>16,974,232,448</t>
+  </si>
+  <si>
+    <t>644,457,509.57</t>
+  </si>
+  <si>
+    <t>514,091,552.77</t>
+  </si>
+  <si>
+    <t>576,568,511.98</t>
+  </si>
+  <si>
+    <t>561,194,414.81</t>
+  </si>
+  <si>
+    <t>561,905,783.22</t>
+  </si>
+  <si>
+    <t>677,520,806.57</t>
+  </si>
+  <si>
+    <t>157.2</t>
+  </si>
+  <si>
+    <t>155.4</t>
+  </si>
+  <si>
+    <t>159.1</t>
+  </si>
+  <si>
+    <t>158.1</t>
+  </si>
+  <si>
+    <t>156.7</t>
+  </si>
+  <si>
+    <t>17,188,742,165</t>
+  </si>
+  <si>
+    <t>17,436,127,001</t>
+  </si>
+  <si>
+    <t>17,668,456,499</t>
+  </si>
+  <si>
+    <t>17,884,797,991</t>
+  </si>
+  <si>
+    <t>18,118,598,462</t>
+  </si>
+  <si>
+    <t>18,463,629,282</t>
   </si>
 </sst>
 </file>
@@ -782,18 +832,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,374 +1152,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E022C-3C6C-9C41-900A-C5F720B63808}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <v>1.323</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>108661</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>1.1970000000000001</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>101.825</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>1.3240000000000001</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>99.712000000000003</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>809</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>99340</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>926</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>102.869</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>982</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>98.73</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>10447518.68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>928</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>98359</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>905</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>97.96</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>781</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>97.438999999999993</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>2017</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>808</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>96938</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="2">
         <v>10175771.85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>2017</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>806</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>96.712000000000003</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>2017</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>845</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>97.81</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
         <v>10391974.262</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>759</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1492,16 +1536,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>519</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1518,16 +1562,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>2018</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>723</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1544,16 +1588,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>2018</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>895</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1570,16 +1614,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>2018</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>863</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1596,16 +1640,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>2018</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>945</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1622,16 +1666,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>831</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1648,16 +1692,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>946</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1674,16 +1718,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>2018</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>757</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1700,16 +1744,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>881</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1726,16 +1770,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>2018</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>718</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1752,16 +1796,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>2018</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>722</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1778,10 +1822,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26">
         <v>2019</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1804,10 +1848,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27">
         <v>2019</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1830,10 +1874,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28">
         <v>2019</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1856,10 +1900,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>2019</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1882,10 +1926,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30">
         <v>2019</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1908,10 +1952,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>2019</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1934,10 +1978,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>2019</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1960,10 +2004,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33">
         <v>2019</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1986,10 +2030,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34">
         <v>2019</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2012,10 +2056,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35">
         <v>2019</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2038,10 +2082,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36">
         <v>2019</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2064,10 +2108,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37">
         <v>2019</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2090,10 +2134,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38">
         <v>2020</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2116,10 +2160,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+      <c r="A39">
         <v>2020</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2142,10 +2186,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+      <c r="A40">
         <v>2020</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2168,10 +2212,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41">
         <v>2020</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2194,10 +2238,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42">
         <v>2020</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2220,10 +2264,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43">
         <v>2020</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2246,10 +2290,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+      <c r="A44">
         <v>2020</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2272,10 +2316,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45">
         <v>2020</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2298,10 +2342,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46">
         <v>2020</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2324,10 +2368,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47">
         <v>2020</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2350,10 +2394,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48">
         <v>2020</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2376,10 +2420,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49">
         <v>2020</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2402,10 +2446,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50">
         <v>2021</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2428,10 +2472,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51">
         <v>2021</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2454,10 +2498,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52">
         <v>2021</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2480,10 +2524,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+      <c r="A53">
         <v>2021</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2506,10 +2550,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54">
         <v>2021</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2532,10 +2576,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55">
         <v>2021</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2558,10 +2602,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56">
         <v>2021</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2584,10 +2628,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57">
         <v>2021</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2610,10 +2654,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58">
         <v>2021</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2636,10 +2680,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59">
         <v>2021</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2662,10 +2706,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60">
         <v>2021</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2688,10 +2732,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+      <c r="A61">
         <v>2021</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2714,10 +2758,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62">
         <v>2022</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2740,10 +2784,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>2022</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2766,10 +2810,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>2022</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2792,10 +2836,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+      <c r="A65">
         <v>2022</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2818,10 +2862,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+      <c r="A66">
         <v>2022</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2844,10 +2888,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+      <c r="A67">
         <v>2022</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2870,10 +2914,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+      <c r="A68">
         <v>2022</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2896,10 +2940,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="A69">
         <v>2022</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2922,10 +2966,10 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A70">
         <v>2022</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2948,10 +2992,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+      <c r="A71">
         <v>2022</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2974,10 +3018,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72">
         <v>2022</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3000,10 +3044,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73">
         <v>2022</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3026,10 +3070,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="A74">
         <v>2023</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3038,11 +3082,11 @@
       <c r="D74" s="1">
         <v>2.085</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>158</v>
+      <c r="F74" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G74" s="1">
         <v>111.99299999999999</v>
@@ -3052,10 +3096,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+      <c r="A75">
         <v>2023</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3064,11 +3108,11 @@
       <c r="D75" s="3">
         <v>1955</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>194</v>
+      <c r="F75" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G75" s="1">
         <v>112.608</v>
@@ -3076,6 +3120,256 @@
       <c r="H75" s="1" t="s">
         <v>233</v>
       </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2023</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="1">
+        <v>113.607</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2023</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2.2909999999999999</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="1">
+        <v>114.47199999999999</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2023</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2.556</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="1">
+        <v>115.395</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2023</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2.403</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" s="1">
+        <v>116.342</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2023</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2320</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="1">
+        <v>117.238</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2023</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="1">
+        <v>117.11</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abecip_cgi.xlsx
+++ b/data-raw/abecip_cgi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusoike/Documents/GitHub/realestatebr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838884F-CA9F-E541-9069-1AA2C561BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72AD812-9544-6446-B365-5EC3E24A57C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1280" windowWidth="15920" windowHeight="14880" xr2:uid="{E617B1F6-EB34-2A4E-917E-41F92E27F3C5}"/>
+    <workbookView xWindow="520" yWindow="1180" windowWidth="15920" windowHeight="14880" xr2:uid="{E617B1F6-EB34-2A4E-917E-41F92E27F3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="263">
   <si>
     <t xml:space="preserve">Més </t>
   </si>
@@ -785,6 +785,42 @@
   </si>
   <si>
     <t>18,463,629,282</t>
+  </si>
+  <si>
+    <t>639,169,072.76</t>
+  </si>
+  <si>
+    <t>633,235,924.42</t>
+  </si>
+  <si>
+    <t>711,061,546.22</t>
+  </si>
+  <si>
+    <t>647,341,309.41</t>
+  </si>
+  <si>
+    <t>160.7</t>
+  </si>
+  <si>
+    <t>158.5</t>
+  </si>
+  <si>
+    <t>157.9</t>
+  </si>
+  <si>
+    <t>3.8%</t>
+  </si>
+  <si>
+    <t>18,835,612,488</t>
+  </si>
+  <si>
+    <t>19,035,834,637</t>
+  </si>
+  <si>
+    <t>19.401,421,366</t>
+  </si>
+  <si>
+    <t>19,687,763,253</t>
   </si>
 </sst>
 </file>
@@ -856,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,7 +932,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1002,7 +1038,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1144,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,8 +1191,8 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3271,14 +3307,115 @@
         <v>128</v>
       </c>
       <c r="G81" s="1">
-        <v>117.11</v>
+        <v>117110</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>250</v>
       </c>
     </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2023</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2524</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="1">
+        <v>118252</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2023</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2399</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" s="1">
+        <v>118894</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2023</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2760</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="1">
+        <v>120052</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
+      <c r="A85">
+        <v>2023</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2409</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G85" s="1">
+        <v>120833</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
@@ -3300,26 +3437,22 @@
       <c r="C90" s="1"/>
       <c r="E90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
       <c r="E91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
       <c r="E92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
       <c r="E93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
